--- a/Wasserstein_plots_5arms_yaml/wasserstein_metrics_5arms_yaml.xlsx
+++ b/Wasserstein_plots_5arms_yaml/wasserstein_metrics_5arms_yaml.xlsx
@@ -473,22 +473,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LLM(gpt-4.1-nano)</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EpsilonGreedy(epsilon=0.1, bernoulli)</t>
+          <t>$\epsilon$-greedy</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>0.625</v>
+        <v>0.5279999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5636562191028618</v>
+        <v>0.2976843966350941</v>
       </c>
     </row>
     <row r="3">
@@ -499,7 +499,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LLM(gpt-4.1-nano)</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -508,13 +508,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>1.333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="F3" t="n">
-        <v>1.017212967977809</v>
+        <v>0.1959591794226543</v>
       </c>
     </row>
     <row r="4">
@@ -525,22 +525,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LLM(gpt-4.1-nano)</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ThompsonSampling(bernoulli)</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5208333333333334</v>
+        <v>0.5760000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5098849271050174</v>
+        <v>0.2852086955196142</v>
       </c>
     </row>
     <row r="5">
@@ -551,7 +551,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LLM(gpt-4.1-nano)</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.546</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8536583853561616</v>
+        <v>0.3464448007980492</v>
       </c>
     </row>
     <row r="6">
@@ -577,7 +577,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LLM(gpt-4.1-nano)</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.478</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5947542676508416</v>
+        <v>0.2184856974723975</v>
       </c>
     </row>
     <row r="7">
@@ -603,7 +603,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LLM(gpt-4.1-nano)</t>
+          <t>LLM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>1.0625</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5064685742143008</v>
+        <v>0.3684236691636409</v>
       </c>
     </row>
   </sheetData>

--- a/Wasserstein_plots_5arms_yaml/wasserstein_metrics_5arms_yaml.xlsx
+++ b/Wasserstein_plots_5arms_yaml/wasserstein_metrics_5arms_yaml.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5279999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2976843966350941</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="3">
@@ -508,13 +508,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6</v>
+        <v>1.15</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1959591794226543</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="4">
@@ -534,13 +534,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5760000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2852086955196142</v>
+        <v>0.1500000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>0.546</v>
+        <v>0.6</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3464448007980492</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>0.478</v>
+        <v>0.8</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2184856974723975</v>
+        <v>0.09999999999999998</v>
       </c>
     </row>
     <row r="7">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3684236691636409</v>
+        <v>0.09999999999999998</v>
       </c>
     </row>
   </sheetData>
